--- a/Bill of Materials/core-bom-v025.xlsx
+++ b/Bill of Materials/core-bom-v025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="2" r:id="rId1"/>
@@ -240,9 +240,6 @@
     <t>8-SOIC</t>
   </si>
   <si>
-    <t>B1, B2</t>
-  </si>
-  <si>
     <t>R7</t>
   </si>
   <si>
@@ -271,12 +268,6 @@
   </si>
   <si>
     <t>3.6mm x 3.1mm</t>
-  </si>
-  <si>
-    <t>LED1</t>
-  </si>
-  <si>
-    <t>LED2</t>
   </si>
   <si>
     <t>RGB LED</t>
@@ -493,9 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C16</t>
-  </si>
-  <si>
     <t>Chip Antenna</t>
   </si>
   <si>
@@ -714,6 +702,18 @@
   </si>
   <si>
     <t>Requires sourcing and ordering!</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>BTN, RESET</t>
+  </si>
+  <si>
+    <t>LED_RGB</t>
+  </si>
+  <si>
+    <t>LED_USR</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1208,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1276,13 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1285,13 +1292,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="124" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="123" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="321">
     <cellStyle name="Bad" xfId="124" builtinId="27"/>
@@ -1945,8 +1946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1970,13 +1971,13 @@
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="2:10" ht="16" thickBot="1">
-      <c r="B2" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C2" s="37"/>
+      <c r="B2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="42"/>
       <c r="D2" s="31">
         <f ca="1">TODAY()</f>
-        <v>41509</v>
+        <v>41516</v>
       </c>
     </row>
     <row r="3" spans="2:10">
@@ -1986,36 +1987,36 @@
     </row>
     <row r="4" spans="2:10">
       <c r="B4" s="29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -2023,16 +2024,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
+        <v>105</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10">
@@ -2043,46 +2044,46 @@
         <v>7</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="40">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="42" t="s">
+      <c r="D8" s="35" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="35"/>
+      <c r="F8" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="39" t="s">
-        <v>185</v>
+      <c r="G8" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="36" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:10">
@@ -2093,22 +2094,22 @@
         <v>7</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F9" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J9" s="5"/>
     </row>
@@ -2120,20 +2121,20 @@
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="21" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J10" s="5"/>
     </row>
@@ -2142,28 +2143,28 @@
         <v>1</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>119</v>
+        <v>51</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>115</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F11" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="2:10">
@@ -2171,28 +2172,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>120</v>
+        <v>51</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>116</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F12" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="30">
@@ -2200,23 +2201,23 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>10</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J13" s="5"/>
     </row>
@@ -2225,25 +2226,25 @@
         <v>1</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F14" s="20" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="J14" s="5"/>
     </row>
@@ -2255,20 +2256,20 @@
         <v>8</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J15" s="5"/>
     </row>
@@ -2280,20 +2281,20 @@
         <v>1</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J16" s="5"/>
     </row>
@@ -2302,10 +2303,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="22" t="s">
@@ -2315,13 +2316,13 @@
         <v>12</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -2332,7 +2333,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="22" t="s">
@@ -2342,10 +2343,10 @@
         <v>2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J18" s="5"/>
     </row>
@@ -2357,7 +2358,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="23" t="s">
@@ -2367,10 +2368,10 @@
         <v>13</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J19" s="5"/>
     </row>
@@ -2382,7 +2383,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="22" t="s">
@@ -2392,10 +2393,10 @@
         <v>23</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J20" s="5"/>
     </row>
@@ -2404,23 +2405,23 @@
         <v>1</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>42</v>
+      <c r="G21" s="35" t="s">
+        <v>185</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J21" s="5"/>
     </row>
@@ -2429,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="19" t="s">
@@ -2442,7 +2443,7 @@
         <v>18</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>29</v>
@@ -2457,20 +2458,20 @@
         <v>9</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J23" s="5"/>
     </row>
@@ -2482,20 +2483,20 @@
         <v>9</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J24" s="5"/>
     </row>
@@ -2507,20 +2508,20 @@
         <v>9</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J25" s="5"/>
     </row>
@@ -2532,7 +2533,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="20" t="s">
@@ -2542,10 +2543,10 @@
         <v>16</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J26" s="5"/>
     </row>
@@ -2557,7 +2558,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="20" t="s">
@@ -2567,10 +2568,10 @@
         <v>17</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J27" s="5"/>
     </row>
@@ -2582,20 +2583,20 @@
         <v>9</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J28" s="5"/>
     </row>
@@ -2604,23 +2605,23 @@
         <v>1</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="15" t="s">
         <v>43</v>
       </c>
+      <c r="G29" s="35" t="s">
+        <v>184</v>
+      </c>
       <c r="H29" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J29" s="5"/>
     </row>
@@ -2629,23 +2630,23 @@
         <v>1</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G30" s="15" t="s">
         <v>20</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I30" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J30" s="5"/>
     </row>
@@ -2654,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="19" t="s">
@@ -2667,10 +2668,10 @@
         <v>18</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J31" s="5"/>
     </row>
@@ -2682,20 +2683,20 @@
         <v>21</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>31</v>
+        <v>40</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>183</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="J32" s="5"/>
     </row>
@@ -2704,23 +2705,23 @@
         <v>1</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="15" t="s">
-        <v>112</v>
+      <c r="G33" s="35" t="s">
+        <v>182</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J33" s="5"/>
     </row>
@@ -2729,23 +2730,23 @@
         <v>1</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J34" s="5"/>
     </row>
@@ -2754,10 +2755,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="22" t="s">
@@ -2767,10 +2768,10 @@
         <v>4</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J35" s="5"/>
     </row>
@@ -2782,20 +2783,20 @@
         <v>28</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="13" t="s">
         <v>3</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J36" s="5"/>
     </row>
@@ -2804,21 +2805,21 @@
         <v>1</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E37" s="19"/>
       <c r="F37" s="5"/>
       <c r="G37" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J37" s="5"/>
     </row>
@@ -2827,23 +2828,23 @@
         <v>1</v>
       </c>
       <c r="C38" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" s="13" t="s">
         <v>170</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J38" s="5"/>
     </row>
@@ -2860,7 +2861,7 @@
     </row>
     <row r="40" spans="2:10">
       <c r="B40" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C40" s="26"/>
       <c r="D40" s="27"/>
@@ -2873,31 +2874,31 @@
     </row>
     <row r="41" spans="2:10">
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="J41" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J41" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:10">
@@ -2905,20 +2906,20 @@
         <v>1</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="20" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G42" s="15"/>
       <c r="H42" s="15"/>
       <c r="I42" s="10"/>
       <c r="J42" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="2:10">
@@ -2926,10 +2927,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="16" t="s">
@@ -2937,10 +2938,10 @@
       </c>
       <c r="G43" s="15"/>
       <c r="H43" s="15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J43" s="5"/>
     </row>
@@ -2949,54 +2950,54 @@
         <v>1</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
       <c r="I44" s="10"/>
       <c r="J44" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="J47" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:10">
@@ -3004,10 +3005,10 @@
         <v>1</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
@@ -3015,7 +3016,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
       <c r="J48" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
